--- a/docs/checklists/docs/checklists/algorithmic_trading_checklist.xlsx
+++ b/docs/checklists/docs/checklists/algorithmic_trading_checklist.xlsx
@@ -29,12 +29,54 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B4C7E7"/>
+        <bgColor rgb="00B4C7E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A9D08E"/>
+        <bgColor rgb="00A9D08E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFE699"/>
+        <bgColor rgb="00FFE699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F4B084"/>
+        <bgColor rgb="00F4B084"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9E2F3"/>
+        <bgColor rgb="00D9E2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FABF8F"/>
+        <bgColor rgb="00FABF8F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFD966"/>
+        <bgColor rgb="00FFD966"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +97,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,9 +483,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="26" customWidth="1" min="1" max="1"/>
-    <col width="34" customWidth="1" min="2" max="2"/>
-    <col width="110" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="62" customWidth="1" min="3" max="3"/>
+    <col width="185" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -447,237 +497,670 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Consideration</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Description/Action</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Backtesting Basics</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Backtesting/1</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Avoid Look-Ahead Bias</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Ensure no future data is used to generate signals for the current period.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>⚠️ Pending</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Backtesting Basics</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Backtesting/2</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>Address Data-Snooping Bias</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>Use out-of-sample testing, cross-validation, and keep models simple with fewer parameters.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>⚠️ Pending</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Backtesting Basics</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Backtesting/3</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>Use Realistic Transaction Costs</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>Account for slippage, spreads, and fees in the backtesting framework.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>⚠️ Pending</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Backtesting Basics</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Backtesting/4</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Evaluate Statistical Significance</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Use hypothesis testing to determine whether observed backtest results are statistically significant and not due to randomness. Consider p-values and critical thresholds.</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>⚠️ Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Backtesting Basics</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Backtesting/5</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Address Randomness in Finite Sample Sizes</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Use statistical significance testing to verify that observed strategy performance is not due to chance. Compute p-values to assess reliability.</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>⚠️ Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Backtesting Basics</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Backtesting/6</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Avoid Backtesting Low Sharpe Ratio Strategies</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Do not backtest strategies with high returns but low Sharpe ratios (&lt;1.0) or long drawdowns, as they are likely inconsistent and prone to data-snooping bias.</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>⚠️ Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Backtesting Basics</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Backtesting/7</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Compare to Appropriate Benchmarks</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Always benchmark strategy performance against simple alternatives like buy-and-hold returns or an information ratio for long-only strategies.</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>⚠️ Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>Market Data Handling</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Market/1</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>Adjust for Venue-Specific Quotes</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>Use historical data from the same venue where trades will execute (e.g., exchange-specific bid-ask spreads).</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>⚠️ Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Market Data Handling</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Market/2</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>Handle Missing or Outlier Data</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>Clean the dataset to remove erroneous or missing values that could skew results.</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>⚠️ Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Market Data Handling</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Market/3</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Avoid Survivorship Bias</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Ensure that backtests use a survivorship-bias-free dataset that includes delisted stocks to avoid inflated returns.</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>⚠️ Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Market Data Handling</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Market/4</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Use Survivorship-Bias-Free Datasets</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>Verify datasets include delisted stocks or other excluded entities to avoid inflated backtest results.</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>⚠️ Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>Strategy Design</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Strategy/1</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Simplify Models</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>Use linear models with minimal parameters to reduce overfitting risks.</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>⚠️ Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>Strategy Design</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Strategy/2</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Avoid Overfitting in Model Design</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>Avoid models with excessive parameters (e.g., neural networks with too many nodes) as they may fit historical data but lack predictive power.</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>⚠️ Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>Strategy Design</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Strategy/3</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Consider Benchmark Appropriateness</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>Always compare strategies to appropriate benchmarks. For long-only strategies, use buy-and-hold returns and information ratios rather than Sharpe ratios.</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>⚠️ Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>Strategy Design</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Strategy/4</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Use Appropriate Statistical Measures for Strategy Validation</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>Apply statistical measures like Sharpe ratio, Sortino ratio, and profit factor to validate strategy robustness.</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>⚠️ Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>Strategy Design</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>Strategy/5</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Avoid Overfitted Models</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>Avoid strategies that overfit historical data (e.g., overly complex neural networks with many parameters) as they lack predictive power in live trading.</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>⚠️ Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>Execution Considerations</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Execution/1</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Account for Latency and Slippage</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>Simulate execution delays and price impacts due to order size and market conditions.</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>⚠️ Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
         <is>
           <t>Risk Management</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>Risk/1</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>Add Risk Controls</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D19" s="6" t="inlineStr">
         <is>
           <t>Implement stop-loss, take-profit, and position-sizing mechanisms in backtesting and live trading.</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>⚠️ Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
         <is>
           <t>Validation</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>Validation/1</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr">
         <is>
           <t>Use Walk-Forward Testing</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D20" s="7" t="inlineStr">
         <is>
           <t>Sequentially test strategies on unseen data to validate out-of-sample performance.</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="E20" s="7" t="inlineStr">
+        <is>
+          <t>⚠️ Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>Validation</t>
+        </is>
+      </c>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>Validation/2</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr">
+        <is>
+          <t>Test for Robustness Using Monte Carlo Simulation</t>
+        </is>
+      </c>
+      <c r="D21" s="7" t="inlineStr">
+        <is>
+          <t>Use Monte Carlo simulations to generate simulated price data with the same moments as observed data. Run the strategy on this simulated data to test its robustness.</t>
+        </is>
+      </c>
+      <c r="E21" s="7" t="inlineStr">
+        <is>
+          <t>⚠️ Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>Validation</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>Validation/3</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr">
+        <is>
+          <t>Use Randomized Trade Testing</t>
+        </is>
+      </c>
+      <c r="D22" s="7" t="inlineStr">
+        <is>
+          <t>Randomize trade entry dates while keeping the number of trades and holding periods fixed. Evaluate whether strategy performance persists under randomized conditions.</t>
+        </is>
+      </c>
+      <c r="E22" s="7" t="inlineStr">
+        <is>
+          <t>⚠️ Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>Validation</t>
+        </is>
+      </c>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>Validation/4</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="inlineStr">
+        <is>
+          <t>Test for Overfitting with Statistical Significance</t>
+        </is>
+      </c>
+      <c r="D23" s="7" t="inlineStr">
+        <is>
+          <t>Validate strategies with statistical significance tests to detect overfitting. Ensure robustness through out-of-sample testing.</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="inlineStr">
+        <is>
+          <t>⚠️ Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>Validation</t>
+        </is>
+      </c>
+      <c r="B24" s="7" t="inlineStr">
+        <is>
+          <t>Validation/5</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="inlineStr">
+        <is>
+          <t>Evaluate High-Frequency Strategies Critically</t>
+        </is>
+      </c>
+      <c r="D24" s="7" t="inlineStr">
+        <is>
+          <t>Be cautious when backtesting high-frequency strategies, as success depends heavily on market microstructure and live execution dynamics. Simulations may fail to capture these effects.</t>
+        </is>
+      </c>
+      <c r="E24" s="7" t="inlineStr">
+        <is>
+          <t>⚠️ Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="inlineStr">
         <is>
           <t>Performance Metrics</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B25" s="8" t="inlineStr">
+        <is>
+          <t>Metrics/1</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
         <is>
           <t>Track Statistical Significance</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D25" s="8" t="inlineStr">
         <is>
           <t>Evaluate Sharpe ratio, Sortino ratio, max drawdown, and profit factor to validate performance.</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>⚠️ Pending</t>
         </is>
       </c>
     </row>
